--- a/data/clean/EVS_Data_Quality_Overview_v2.xlsx
+++ b/data/clean/EVS_Data_Quality_Overview_v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="448">
   <si>
     <t>v1</t>
   </si>
@@ -1310,9 +1310,6 @@
     <t>traditional_family</t>
   </si>
   <si>
-    <t>include?</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -1371,6 +1368,9 @@
   </si>
   <si>
     <t>democracy2</t>
+  </si>
+  <si>
+    <t>religion</t>
   </si>
 </sst>
 </file>
@@ -2983,10 +2983,10 @@
   <dimension ref="A1:L287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L181" sqref="L181"/>
+      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3784,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4396,8 +4396,12 @@
       <c r="I59" s="16">
         <v>1</v>
       </c>
-      <c r="J59" s="29"/>
-      <c r="K59" s="41"/>
+      <c r="J59" s="29">
+        <v>1</v>
+      </c>
+      <c r="K59" s="41" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
@@ -4415,8 +4419,12 @@
       <c r="I60" s="2">
         <v>1</v>
       </c>
-      <c r="J60" s="29"/>
-      <c r="K60" s="41"/>
+      <c r="J60" s="29">
+        <v>1</v>
+      </c>
+      <c r="K60" s="41" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -4434,8 +4442,12 @@
       <c r="I61" s="2">
         <v>1</v>
       </c>
-      <c r="J61" s="29"/>
-      <c r="K61" s="41"/>
+      <c r="J61" s="29">
+        <v>1</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
@@ -4457,8 +4469,12 @@
       <c r="I62" s="7">
         <v>1</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="41"/>
+      <c r="J62" s="30">
+        <v>1</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
@@ -5239,13 +5255,10 @@
         <v>1</v>
       </c>
       <c r="J92" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" s="40" t="s">
         <v>426</v>
-      </c>
-      <c r="L92" s="22" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5277,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="40" t="s">
         <v>426</v>
@@ -5312,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" s="40" t="s">
         <v>426</v>
@@ -5597,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5620,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5643,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5670,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5729,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="K113" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5761,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5793,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="K115" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5825,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5858,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="K117" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6522,7 +6535,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L143" s="22" t="s">
         <v>416</v>
@@ -6557,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6589,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="K145" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6621,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="K146" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6653,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="K147" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -6685,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="K148" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -6717,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6749,7 +6762,7 @@
         <v>1</v>
       </c>
       <c r="K150" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6782,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="K151" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -6889,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="K155" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -6915,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="K156" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -6941,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="K157" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -6970,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="K158" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -7002,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="K159" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -7034,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="K160" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -7066,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="K161" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -7098,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="K162" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -7130,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="K163" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -7162,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="K164" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -7194,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="K165" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -7226,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="K166" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -7258,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="K167" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -7290,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="K168" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -7322,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="K169" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -7354,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="K170" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7386,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="K171" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7418,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="K172" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7451,7 +7464,7 @@
         <v>1</v>
       </c>
       <c r="K173" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -7477,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="K174" s="40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -7503,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="K175" s="40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -7529,7 +7542,7 @@
         <v>1</v>
       </c>
       <c r="K176" s="40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -7555,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="K177" s="40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -7760,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="K186" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -7786,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="K187" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -7812,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="K188" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -7838,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="K189" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -7864,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="K190" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -7890,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K191" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -7916,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="K192" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -7945,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="K193" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -8003,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="K195" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -8032,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="K196" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -8061,7 +8074,7 @@
         <v>1</v>
       </c>
       <c r="K197" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -8092,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="K198" s="40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -8121,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="K199" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -8171,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="K201" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -8197,7 +8210,7 @@
         <v>1</v>
       </c>
       <c r="K202" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -8226,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="K203" s="40" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -8252,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="K204" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -8278,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="K205" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -8304,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="K206" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -8333,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="K207" s="40" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -8395,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="K209" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -8430,7 +8443,7 @@
         <v>1</v>
       </c>
       <c r="K210" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8465,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="K211" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -8500,7 +8513,7 @@
         <v>1</v>
       </c>
       <c r="K212" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -8535,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="K213" s="40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -8584,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="K215" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -8610,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="K216" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -8639,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="K217" s="40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -8665,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="K218" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8691,7 +8704,7 @@
         <v>1</v>
       </c>
       <c r="K219" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -8717,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="K220" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -8746,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="K221" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8778,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="K222" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -8810,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="K223" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8842,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="K224" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -8874,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="K225" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -8907,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="K226" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -8939,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="K227" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -8971,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="K228" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -9034,7 +9047,7 @@
         <v>1</v>
       </c>
       <c r="K230" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -9060,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="K231" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -9086,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="K232" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -9112,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="K233" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -9141,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="K234" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -10158,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="K279" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L279" s="22" t="s">
         <v>406</v>
@@ -10184,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="K280" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L280" s="22" t="s">
         <v>406</v>
@@ -10210,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="K281" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L281" s="22" t="s">
         <v>406</v>
@@ -10260,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="K283" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L283" s="22" t="s">
         <v>406</v>
@@ -10286,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="K284" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L284" s="22" t="s">
         <v>406</v>
@@ -10312,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="K285" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L285" s="22" t="s">
         <v>406</v>
@@ -10378,7 +10391,7 @@
       </c>
       <c r="J287" s="35">
         <f>SUBTOTAL(109,Tabelle1[Measurement Invariance])</f>
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K287" s="39"/>
       <c r="L287" s="22" t="s">

--- a/data/clean/EVS_Data_Quality_Overview_v2.xlsx
+++ b/data/clean/EVS_Data_Quality_Overview_v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="448">
   <si>
     <t>v1</t>
   </si>
@@ -2983,10 +2983,10 @@
   <dimension ref="A1:L287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomRight" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,11 +3064,9 @@
         <v>1</v>
       </c>
       <c r="J2" s="32">
-        <v>1</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -3168,11 +3166,9 @@
         <v>1</v>
       </c>
       <c r="J6" s="32">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -3197,11 +3193,9 @@
         <v>1</v>
       </c>
       <c r="J7" s="33">
-        <v>1</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -4383,8 +4377,8 @@
       <c r="B59" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>390</v>
+      <c r="C59" s="17">
+        <v>2</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
@@ -4397,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="41" t="s">
         <v>447</v>
@@ -4410,8 +4404,8 @@
       <c r="B60" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>390</v>
+      <c r="C60" s="5">
+        <v>2</v>
       </c>
       <c r="H60" s="12">
         <v>1</v>
@@ -4420,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="41" t="s">
         <v>447</v>
@@ -4433,8 +4427,8 @@
       <c r="B61" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>390</v>
+      <c r="C61" s="5">
+        <v>2</v>
       </c>
       <c r="H61" s="12">
         <v>1</v>
@@ -4443,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="41" t="s">
         <v>447</v>
@@ -4456,8 +4450,8 @@
       <c r="B62" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>390</v>
+      <c r="C62" s="8">
+        <v>2</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -4470,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="41" t="s">
         <v>447</v>
@@ -6730,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="K149" s="40" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -10391,7 +10385,7 @@
       </c>
       <c r="J287" s="35">
         <f>SUBTOTAL(109,Tabelle1[Measurement Invariance])</f>
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K287" s="39"/>
       <c r="L287" s="22" t="s">
